--- a/Datatest/datatest.xlsx
+++ b/Datatest/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIS automation\Datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B912E66E-5111-4C1C-AEFB-2B7C6BEB7142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071766E7-B5F5-498E-B816-444D3D59EB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="120">
   <si>
     <t>TC_ID</t>
   </si>
@@ -376,7 +376,10 @@
     <t>Bệnh viện đa khoa KV Long Khánh</t>
   </si>
   <si>
-    <t>Quách Bảo Hưng 73</t>
+    <t>Quách Bảo Hưng 72</t>
+  </si>
+  <si>
+    <t>Quách Bảo Hưng 61</t>
   </si>
 </sst>
 </file>
@@ -743,15 +746,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC13"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
@@ -1517,62 +1549,247 @@
       <c r="A13" t="s">
         <v>114</v>
       </c>
+      <c r="B13">
+        <v>24009875</v>
+      </c>
       <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>2</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>4</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>24009877</v>
+      </c>
+      <c r="C15" t="s">
         <v>118</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E15" s="2">
         <v>36649</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I15" t="s">
         <v>60</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J15" t="s">
         <v>61</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K15" t="s">
         <v>62</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L15" t="s">
         <v>63</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M15" t="s">
         <v>115</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N15" t="s">
         <v>116</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O15" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P15" s="2">
         <v>45294</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q15" s="2">
         <v>45657</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R15" t="s">
         <v>65</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S15" t="s">
         <v>66</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T15" t="s">
         <v>80</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U15" t="s">
         <v>68</v>
+      </c>
+      <c r="V15" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15" t="s">
+        <v>90</v>
+      </c>
+      <c r="X15">
+        <v>251972738</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA15">
+        <v>356478888</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD15">
+        <v>46200010730</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>44929</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>2</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>4</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
